--- a/gams/res_sum_Q_rI_reload.xlsx
+++ b/gams/res_sum_Q_rI_reload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F2FF0D-3FF7-40EE-975E-8F480F244F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF719107-EC2E-41F4-A92E-D0D2803EC7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{2CD73529-3E45-4DCE-BD61-9F039128D4EB}"/>
+    <workbookView xWindow="-9690" yWindow="990" windowWidth="7500" windowHeight="6000" xr2:uid="{2CD73529-3E45-4DCE-BD61-9F039128D4EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/gams/res_sum_Q_rI_reload.xlsx
+++ b/gams/res_sum_Q_rI_reload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF719107-EC2E-41F4-A92E-D0D2803EC7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D8BB46-0B8E-42C6-8A46-59277F178314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9690" yWindow="990" windowWidth="7500" windowHeight="6000" xr2:uid="{2CD73529-3E45-4DCE-BD61-9F039128D4EB}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{2CD73529-3E45-4DCE-BD61-9F039128D4EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/gams/res_sum_Q_rI_reload.xlsx
+++ b/gams/res_sum_Q_rI_reload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D8BB46-0B8E-42C6-8A46-59277F178314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4BA7C2-1709-4222-9DC4-0ECEA9E4ADEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{2CD73529-3E45-4DCE-BD61-9F039128D4EB}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{6A647BD3-355A-47B3-86CA-7450B469555B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5849B35B-7C5B-4AE7-B373-C67A6078E963}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A3FEB2-920E-4677-B835-576714FC0D26}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
